--- a/docs/assets/disciplinas/LOM3104.xlsx
+++ b/docs/assets/disciplinas/LOM3104.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
+  </si>
+  <si>
+    <t>2166002 - Sandra Giacomin Schneider</t>
+  </si>
+  <si>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -481,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,98 +613,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="120" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3104.xlsx
+++ b/docs/assets/disciplinas/LOM3104.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Promover a formação do engenheiro de materiais sob o ponto de vista do desenvolvimento de competências gerais e específicas.Aplicar e integrar conhecimentos adquiridos às demais disciplinas do curso de Engenharia de Materiais, desenvolvendo competências técnicas relacionadas ao projeto em si, bem como competências transversais (habilidades e atitudes) e socioemocionais, num ambiente de aprendizagem colaborativa.</t>
+    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,58 +79,46 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>2166002 - Sandra Giacomin Schneider</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Conceitos básicos em Engenharia. Introdução a métodos de projeto. Proposta e simulação de pequeno projeto de Engenharia. Definição do problema e formação de alternativas de solução. Estabelecimento de critérios. Escolha e avaliação de soluções. Especificação da solução. Prática de escrita científica.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Introdução ao projeto em Engenharia: o que é projeto em engenharia e por que projetar? Metodologias de projeto; etapas de elaboração de projeto.2. Desenvolvimento de um projeto temático, compreendendo: definição do problema e formação de alternativas de solução; estabelecimento de critérios; escolha e avaliação de soluções; especificação da solução3. Noções de planejamento e gestão de projetos; organização do tempo; técnicas para a realização de apresentações; noções de aprendizagem baseada em projetos; trabalho em grupo, equipes e times4. Desenvolvimento de competências técnicas, transversais e socioemocionais: integração de conhecimentos, habilidades e atitudes. Postura e ética profissional5. Métodos e normas para redação de relatório técnico6. Tutoria de projetos</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>O método utilizado tem por fundamento a aprendizagem baseada em projetos que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, capacidade de comunicação oral e verbal e aspectos de liderança, dentre outros.Os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a um tema de Engenharia de Materiais, similar ao que eles irão encontrar na vida real no efetivo exercício de sua profissão.Cada grupo deverá buscar o conhecimento prático necessário para ser aplicado no desenvolvimento do projeto.As aulas ocorrerão por meio de uma reunião da equipe de trabalho para tratar do projeto; palestras e dinâmicas relativas ao tema do projeto, conduzidas por professores ou profissionais de empresas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota será individual e será a média ponderada de entregas do projeto, tais como: projeto preliminar, projeto final, envolvimento do aluno com o projeto, avaliação dos pares, autoavaliação e apresentação de trabalhos, dentre outros.O detalhamento dos pesos para ponderação da média da disciplina será definido por uma equipe de professores que atuarão na avaliação da disciplina.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>não tem norma de recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>- BAZZO, Walter; PEREIRA, Luiz T.V. Introdução à Engenharia, 3a. edição. Florianópolis: Editora da UFSC, 2013.- COCIAN, Luis Fernando Espinosa. Introdução à Engenharia. Porto Alegre: Bookman, 2017.- BENNETT, Ronald; MILLAM, Elaine. Liderança para engenheiros. Porto Alegre: AMGH, 2014.- ALEXANDER, C. K.; WATSON, J. A. Habilidades para uma carreira de sucesso na engenharia, Porto Alegre: AMGH Editora, 2015.- MCCAHAN, S.; ANDERSON, P.; KORTSCHOT, M.; WEISS, P.; WOODHOUSE, K. Projetos de Engenharia: uma introdução. 1ª edição. -Rio de Janeiro: LTC, 2017.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,47 +606,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -669,71 +654,50 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3104.xlsx
+++ b/docs/assets/disciplinas/LOM3104.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,25 +70,37 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Promover a formação do engenheiro de materiais sob o ponto de vista do desenvolvimento de competências gerais e específicas.Aplicar e integrar conhecimentos adquiridos às demais disciplinas do curso de Engenharia de Materiais, desenvolvendo competências técnicas relacionadas ao projeto em si, bem como competências transversais (habilidades e atitudes) e socioemocionais, num ambiente de aprendizagem colaborativa.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>2166002 - Sandra Giacomin Schneider</t>
+  </si>
+  <si>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Conceitos básicos em Engenharia. Introdução a métodos de projeto. Proposta e simulação de pequeno projeto de Engenharia. Definição do problema e formação de alternativas de solução. Estabelecimento de critérios. Escolha e avaliação de soluções. Especificação da solução. Prática de escrita científica.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>2166002 - Sandra Giacomin Schneider</t>
+    <t>1. Introdução ao projeto em Engenharia: o que é projeto em engenharia e por que projetar? Metodologias de projeto; etapas de elaboração de projeto.2. Desenvolvimento de um projeto temático, compreendendo: definição do problema e formação de alternativas de solução; estabelecimento de critérios; escolha e avaliação de soluções; especificação da solução3. Noções de planejamento e gestão de projetos; organização do tempo; técnicas para a realização de apresentações; noções de aprendizagem baseada em projetos; trabalho em grupo, equipes e times4. Desenvolvimento de competências técnicas, transversais e socioemocionais: integração de conhecimentos, habilidades e atitudes. Postura e ética profissional5. Métodos e normas para redação de relatório técnico6. Tutoria de projetos</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
+    <t>O método utilizado tem por fundamento a aprendizagem baseada em projetos que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, capacidade de comunicação oral e verbal e aspectos de liderança, dentre outros.Os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a um tema de Engenharia de Materiais, similar ao que eles irão encontrar na vida real no efetivo exercício de sua profissão.Cada grupo deverá buscar o conhecimento prático necessário para ser aplicado no desenvolvimento do projeto.As aulas ocorrerão por meio de uma reunião da equipe de trabalho para tratar do projeto; palestras e dinâmicas relativas ao tema do projeto, conduzidas por professores ou profissionais de empresas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O método utilizado tem por fundamento a aprendizagem baseada em projetos que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, capacidade de comunicação oral e verbal e aspectos de liderança, dentre outros.Os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a um tema de Engenharia de Materiais, similar ao que eles irão encontrar na vida real no efetivo exercício de sua profissão.Cada grupo deverá buscar o conhecimento prático necessário para ser aplicado no desenvolvimento do projeto.As aulas ocorrerão por meio de uma reunião da equipe de trabalho para tratar do projeto; palestras e dinâmicas relativas ao tema do projeto, conduzidas por professores ou profissionais de empresas.</t>
+    <t>A nota será individual e será a média ponderada de entregas do projeto, tais como: projeto preliminar, projeto final, envolvimento do aluno com o projeto, avaliação dos pares, autoavaliação e apresentação de trabalhos, dentre outros.O detalhamento dos pesos para ponderação da média da disciplina será definido por uma equipe de professores que atuarão na avaliação da disciplina.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota será individual e será a média ponderada de entregas do projeto, tais como: projeto preliminar, projeto final, envolvimento do aluno com o projeto, avaliação dos pares, autoavaliação e apresentação de trabalhos, dentre outros.O detalhamento dos pesos para ponderação da média da disciplina será definido por uma equipe de professores que atuarão na avaliação da disciplina.</t>
+    <t>não tem norma de recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>não tem norma de recuperação</t>
+    <t>- BAZZO, Walter; PEREIRA, Luiz T.V. Introdução à Engenharia, 3a. edição. Florianópolis: Editora da UFSC, 2013.- COCIAN, Luis Fernando Espinosa. Introdução à Engenharia. Porto Alegre: Bookman, 2017.- BENNETT, Ronald; MILLAM, Elaine. Liderança para engenheiros. Porto Alegre: AMGH, 2014.- ALEXANDER, C. K.; WATSON, J. A. Habilidades para uma carreira de sucesso na engenharia, Porto Alegre: AMGH Editora, 2015.- MCCAHAN, S.; ANDERSON, P.; KORTSCHOT, M.; WEISS, P.; WOODHOUSE, K. Projetos de Engenharia: uma introdução. 1ª edição. -Rio de Janeiro: LTC, 2017.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -481,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -606,44 +618,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -654,50 +669,71 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
